--- a/Nature_NETS_NYPS_68Bus_IBR.xlsx
+++ b/Nature_NETS_NYPS_68Bus_IBR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup H Drive\0 LYT temp\2020_12-xxxx Nature of Synchronization\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282B92D-6E02-40C8-8E1A-FD17B90420BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A680BE-4869-48B3-B94F-862A4AE02364}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3362,7 +3362,7 @@
         <v>30.2</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" ref="D4:D16" si="0">0.25*C4</f>
+        <f t="shared" ref="D4:D13" si="0">0.25*C4</f>
         <v>7.55</v>
       </c>
       <c r="E4" s="14">
@@ -3379,264 +3379,264 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" si="0"/>
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="E5" s="14">
-        <v>3.04E-2</v>
-      </c>
-      <c r="F5" s="14">
-        <v>5.0666666666666664E-3</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>28.6</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" si="0"/>
-        <v>7.15</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="F6" s="14">
-        <v>4.9166666666666664E-3</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="2">
+        <f>E6/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14">
-        <v>26</v>
-      </c>
-      <c r="D7" s="14">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2.7E-2</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="D8" s="14">
-        <f t="shared" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2.24E-2</v>
-      </c>
-      <c r="F8" s="14">
-        <v>3.7333333333333333E-3</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="2">
+        <f>E8/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14">
-        <v>26.4</v>
-      </c>
-      <c r="D9" s="14">
-        <f t="shared" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="E9" s="14">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="F9" s="14">
-        <v>5.3666666666666663E-3</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="2">
+        <f>E9/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
-        <v>24.3</v>
-      </c>
-      <c r="D10" s="14">
-        <f t="shared" si="0"/>
-        <v>6.0750000000000002</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F10" s="14">
-        <v>4.6666666666666671E-3</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="2">
+        <f>E10/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14">
-        <v>34.5</v>
-      </c>
-      <c r="D11" s="14">
-        <f t="shared" si="0"/>
-        <v>8.625</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2.98E-2</v>
-      </c>
-      <c r="F11" s="14">
-        <v>4.966666666666667E-3</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="2">
+        <f>E11/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14">
-        <v>31</v>
-      </c>
-      <c r="D12" s="14">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="F12" s="14">
-        <v>3.316666666666667E-3</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="2">
+        <f>E12/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
-        <v>28.2</v>
-      </c>
-      <c r="D13" s="14">
-        <f t="shared" si="0"/>
-        <v>7.05</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1.03E-2</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1.7166666666666667E-3</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="E13">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="2">
+        <f>E13/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14">
-        <v>92.3</v>
-      </c>
-      <c r="D14" s="14">
-        <f t="shared" si="0"/>
-        <v>23.074999999999999</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F14" s="14">
-        <v>3.6666666666666666E-3</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="2">
+        <f>E14/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14">
-        <v>248</v>
-      </c>
-      <c r="D15" s="14">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="E15" s="14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F15" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="E15">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="2">
+        <f>E15/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14">
-        <v>300</v>
-      </c>
-      <c r="D16" s="14">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F16" s="14">
-        <v>2.833333333333333E-4</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="2">
+        <f>E16/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
